--- a/Data/Simul/Test3/Calib_10.xlsx
+++ b/Data/Simul/Test3/Calib_10.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407495020632299</v>
+        <v>0.1437413646015121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1435576950625593</v>
+        <v>0.142498793004214</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1437655923439867</v>
+        <v>0.1447605921112028</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1685820098247993</v>
+        <v>0.146631769189925</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1957718578398426</v>
+        <v>0.149439164629446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2014992361854857</v>
+        <v>0.1657985520254939</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1984657809816665</v>
+        <v>0.1714055252382693</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1897520901935345</v>
+        <v>0.1734738137519535</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1933386683043</v>
+        <v>0.1710889042825333</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1906625820362967</v>
+        <v>0.1568229290542816</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1781138090461249</v>
+        <v>0.1553142596198509</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1892904637544753</v>
+        <v>0.1790734497277391</v>
       </c>
       <c r="N2" t="n">
-        <v>0.214151563674194</v>
+        <v>0.1993127436442312</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2159722866075156</v>
+        <v>0.2356087190045581</v>
       </c>
       <c r="P2" t="n">
-        <v>0.142151443216941</v>
+        <v>0.2595018084889124</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2011954181255164</v>
+        <v>0.2941189711663734</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2254384718551256</v>
+        <v>0.3156672212715863</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2130866136123542</v>
+        <v>0.282633790166954</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3106181401128885</v>
+        <v>0.3242740243120751</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2904932087151763</v>
+        <v>0.3998615807503806</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3731479124696254</v>
+        <v>0.3350418758151357</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5601303201798711</v>
+        <v>0.4805359116306134</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6315712256476054</v>
+        <v>0.5809776571469598</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7342315164936578</v>
+        <v>0.3506843356937146</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7469049189928537</v>
+        <v>0.4312362209923991</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7795441844567159</v>
+        <v>0.3558839118528687</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7468427207750086</v>
+        <v>0.3078501379763672</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6598189419889329</v>
+        <v>0.1526513183300155</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494235391239664</v>
+        <v>0.1411665919211793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410068960444937</v>
+        <v>0.1458234219109187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1418438844809267</v>
+        <v>0.1375569731008767</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103026300761567</v>
+        <v>0.1296736026215894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05464242649090884</v>
+        <v>0.1163487081707844</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03913648905139851</v>
+        <v>0.07647295373150982</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05671625267008967</v>
+        <v>0.0579947913107224</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08380906172069424</v>
+        <v>0.04097774417751813</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08859426082380885</v>
+        <v>0.06248429951085497</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05190798788703108</v>
+        <v>0.09861630472513969</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357907127540811</v>
+        <v>0.04353713258813272</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06189445343602346</v>
+        <v>0.1021247417146992</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06394420299204566</v>
+        <v>0.02090427126816963</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02191956078598385</v>
+        <v>0.02583555311200491</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008700167330311849</v>
+        <v>0.01758800138716506</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02455198041437926</v>
+        <v>0.01728480015377152</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05464783375707627</v>
+        <v>0.03189493742257549</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1182564006037271</v>
+        <v>0.0188987396868857</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06494028734255514</v>
+        <v>0.01812104026001042</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00588542735562161</v>
+        <v>0.01341263844247528</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007373106201846194</v>
+        <v>0.005475019886992947</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006822346315328704</v>
+        <v>0.003881985783325282</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001810019389734176</v>
+        <v>0.004015203413738861</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002620871006127929</v>
+        <v>0.001355787021869792</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006411080345887606</v>
+        <v>0.0001498564291064615</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0009931642684808187</v>
+        <v>2.678565846551917e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001161829557151056</v>
+        <v>3.84060053280646e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.246908818045542e-05</v>
+        <v>5.464121420953244e-09</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494235493712611</v>
+        <v>0.1411665882467108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1410068929155071</v>
+        <v>0.1458234246275881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1418438812991811</v>
+        <v>0.1375569642513664</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1030269113992171</v>
+        <v>0.1296735835913298</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0546433338597394</v>
+        <v>0.1163486730141505</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03913729037574625</v>
+        <v>0.07647326223017128</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05671726039301372</v>
+        <v>0.05799518782092174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08381036621815061</v>
+        <v>0.04097814700441268</v>
       </c>
       <c r="J4" t="n">
-        <v>0.079786646059317</v>
+        <v>0.06248476334898726</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09821947898213075</v>
+        <v>0.09861650954914716</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1102726161376255</v>
+        <v>0.1211783055920398</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0936164909688753</v>
+        <v>0.08767338892854469</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0842812525013148</v>
+        <v>0.1188017487406354</v>
       </c>
       <c r="O4" t="n">
-        <v>0.108736277674022</v>
+        <v>0.1040364114607294</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12006952106706</v>
+        <v>0.104270906593539</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1056146975524868</v>
+        <v>0.09887567996982058</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08507575322812107</v>
+        <v>0.08055625506044035</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05039047996987447</v>
+        <v>0.09868061367345254</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04860821176318682</v>
+        <v>0.08709157528558392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09871460550659854</v>
+        <v>0.06762157692492636</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06677992615560113</v>
+        <v>0.112394105282404</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01548024447594452</v>
+        <v>0.03922727972824613</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007220863046896802</v>
+        <v>0.01359048156741485</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001438112858569232</v>
+        <v>0.1050154868015512</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004569054992263689</v>
+        <v>0.05293743347623506</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.22706638561781e-05</v>
+        <v>0.04379682384339281</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.788538938841235e-06</v>
+        <v>0.02214517927939419</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.091107964395247e-07</v>
+        <v>0.01577212515654037</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494274069555787</v>
+        <v>0.1411652048972075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1410057149989314</v>
+        <v>0.1458244471160755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1418426834036497</v>
+        <v>0.1375536328115908</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1030153242768643</v>
+        <v>0.1296664198369995</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05462698733202147</v>
+        <v>0.1163354389728246</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03912293540674683</v>
+        <v>0.07645876668110253</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05669914102945231</v>
+        <v>0.05798135317895037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08378681776234817</v>
+        <v>0.04096622760842168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08550972888191612</v>
+        <v>0.06246921697738727</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08380860691550816</v>
+        <v>0.09860119025791247</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07791988908335848</v>
+        <v>0.09690655115661305</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08333375898524856</v>
+        <v>0.1131750462364388</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0947051727795714</v>
+        <v>0.1247945656381842</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09625812395178283</v>
+        <v>0.1485643021525424</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0639158379886023</v>
+        <v>0.1633365335742322</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08953969591511771</v>
+        <v>0.1848491719824342</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09960398977366154</v>
+        <v>0.1971787111320874</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09319275881523946</v>
+        <v>0.1775398922700277</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1325926691159441</v>
+        <v>0.2027602114160837</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1594593445478784</v>
+        <v>0.2482033081512545</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1879413154438764</v>
+        <v>0.2314204789899539</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2491430250636115</v>
+        <v>0.3057691386087891</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2648247284748232</v>
+        <v>0.3029960326701864</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2212232697869578</v>
+        <v>0.2341506422324061</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1854786293612674</v>
+        <v>0.3096411579919319</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2089637712197327</v>
+        <v>0.4228047825313081</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2517096426448583</v>
+        <v>0.5745755664110062</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3398903087335631</v>
+        <v>0.7564302063581695</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330509811295149</v>
+        <v>0.145016082757232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455112308467617</v>
+        <v>0.1377847699952944</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143756567845974</v>
+        <v>0.1505580137206095</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1768814152606747</v>
+        <v>0.1630442465059302</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2216834459085054</v>
+        <v>0.1845299437336894</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2388519537477718</v>
+        <v>0.2286098300575208</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2160421032772545</v>
+        <v>0.2508884098868296</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1848167534191273</v>
+        <v>0.2743358122261924</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1744350262255055</v>
+        <v>0.2445155084746511</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2201362225824521</v>
+        <v>0.204046872181579</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2527552005508689</v>
+        <v>0.2546672612965467</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2092715465964352</v>
+        <v>0.1751034556067318</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1823550563234764</v>
+        <v>0.2390429453675899</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2413958294571124</v>
+        <v>0.2016035081714338</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3215453468318377</v>
+        <v>0.1949314126437299</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2489309628731019</v>
+        <v>0.167128700609669</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1833137446895452</v>
+        <v>0.1265340027485574</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09567789726348742</v>
+        <v>0.1734979005785882</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1094449681645555</v>
+        <v>0.1406401648953324</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2146234257804154</v>
+        <v>0.09373885383476231</v>
       </c>
       <c r="V6" t="n">
-        <v>0.178872990607341</v>
+        <v>0.1279777933491244</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08580511390836849</v>
+        <v>0.07809129100672869</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05707863283996416</v>
+        <v>0.03807394303448195</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01173584890999136</v>
+        <v>0.1379344746183327</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.003834246344493415</v>
+        <v>0.1107696613883353</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0004669139728383904</v>
+        <v>0.09507076014064328</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.642204309533361e-05</v>
+        <v>0.05034707829613187</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.124764558397508e-06</v>
+        <v>0.03864750159741192</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144493746115304</v>
+        <v>0.1427662981828219</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424860789529989</v>
+        <v>0.1441880387963887</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1431422736862201</v>
+        <v>0.1417263841963921</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1687391419418205</v>
+        <v>0.1391040389428525</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1975720455986929</v>
+        <v>0.1343258980075835</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2043504459403557</v>
+        <v>0.1506117361125971</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1996378901105588</v>
+        <v>0.1566069780267571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1888723123418899</v>
+        <v>0.1596645754591579</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2034749789321322</v>
+        <v>0.1559464263417594</v>
       </c>
       <c r="K7" t="n">
-        <v>0.134983103017577</v>
+        <v>0.1416323555031584</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09484560913532622</v>
+        <v>0.07696719738107782</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1531469984125827</v>
+        <v>0.1693452621180939</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1776217279103841</v>
+        <v>0.06038924835046389</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07417174906304579</v>
+        <v>0.08413662571844915</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03085145038410642</v>
+        <v>0.06624445075457853</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08357687707287356</v>
+        <v>0.06856883896816295</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1679709365217122</v>
+        <v>0.1187338108212108</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3316286976616561</v>
+        <v>0.0742939170544599</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2337368850003673</v>
+        <v>0.08391881708065273</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02684293295905183</v>
+        <v>0.07957127125562713</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03781825907037283</v>
+        <v>0.03528361228473413</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0391520697581303</v>
+        <v>0.02864562536879707</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01457272499859833</v>
+        <v>0.03567836006493386</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02392965125601659</v>
+        <v>0.0123606272907766</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0553081104878489</v>
+        <v>0.001680462141115053</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009775224006134229</v>
+        <v>3.271632642302847e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001274439038598674</v>
+        <v>5.040471829328535e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0002665015783586825</v>
+        <v>7.3552691633449e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.133431275241145</v>
+        <v>0.1449778693933364</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454254911787479</v>
+        <v>0.1380571045495206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1438051169400618</v>
+        <v>0.1502874398079616</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1767288965350571</v>
+        <v>0.1622063393113737</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210599029702895</v>
+        <v>0.1826721734715217</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2379016492924952</v>
+        <v>0.2255748991616046</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2157215715379645</v>
+        <v>0.2471277545375496</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1851525983442554</v>
+        <v>0.2696036797723438</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1748606907730203</v>
+        <v>0.2410108810638267</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2202820185790042</v>
+        <v>0.2016638387287815</v>
       </c>
       <c r="L8" t="n">
-        <v>0.252513804771288</v>
+        <v>0.251429292365739</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2094462878463594</v>
+        <v>0.1735046556677526</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1829410238190136</v>
+        <v>0.2367544769907259</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2415461724605376</v>
+        <v>0.2002148803802822</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3127662331811408</v>
+        <v>0.1941268865578429</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2465903680465243</v>
+        <v>0.1691738371497683</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1839492701747582</v>
+        <v>0.1294350615435422</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09776715207366141</v>
+        <v>0.174455146569632</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1000588385005026</v>
+        <v>0.1431941667502617</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2039810551352579</v>
+        <v>0.09759077064057392</v>
       </c>
       <c r="V8" t="n">
-        <v>0.148066490051337</v>
+        <v>0.1524071143916549</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04346688029874533</v>
+        <v>0.06384876787350009</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02292180560237813</v>
+        <v>0.02466832210228433</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004820729688679146</v>
+        <v>0.1584986463413491</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001606108968422722</v>
+        <v>0.09358520758087732</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002044714122418093</v>
+        <v>0.08240832673951731</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.680400378520194e-05</v>
+        <v>0.04508149558391249</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.447356100556573e-07</v>
+        <v>0.03649876954104984</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1391664849582982</v>
+        <v>0.1414301815573238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417090228794613</v>
+        <v>0.144281710319195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1439939108775122</v>
+        <v>0.1455039880764412</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1590816332593692</v>
+        <v>0.1468781698831284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318502370167859</v>
+        <v>0.1458982740071963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14699122188543</v>
+        <v>0.1854831366459053</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09096043060311136</v>
+        <v>0.195273705680665</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1167190778705646</v>
+        <v>0.1932124302736398</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1133251297131102</v>
+        <v>0.1887096204879447</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1318757558033485</v>
+        <v>0.1932167186175615</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1547406306243631</v>
+        <v>0.194409995618903</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1344397073493154</v>
+        <v>0.1881007704977056</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1564224579555495</v>
+        <v>0.160293468626009</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09647399936390393</v>
+        <v>0.1880842843941664</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07662950606153729</v>
+        <v>0.1851237926885057</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1303443947029953</v>
+        <v>0.1445577183751223</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07409346717199887</v>
+        <v>0.1956381891377776</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03006265625642452</v>
+        <v>0.152785237797004</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1089527901667156</v>
+        <v>0.1601456370012722</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05163908982372326</v>
+        <v>0.1222850694015389</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0253692681137985</v>
+        <v>0.03616324083101505</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01286641670001185</v>
+        <v>0.01231373653164627</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009173549630544228</v>
+        <v>0.007409611705347312</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02007597621832014</v>
+        <v>0.03091831290280751</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01158978289822802</v>
+        <v>0.0208098251100477</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004012855182118281</v>
+        <v>0.009565788063825</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01177670268051325</v>
+        <v>0.003766176678369279</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001668590199654139</v>
+        <v>0.001168308880328038</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1535091887721334</v>
+        <v>0.1481138190642028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1452535697005149</v>
+        <v>0.1372060340321168</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1356838857852431</v>
+        <v>0.1313922301429298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1067404365429815</v>
+        <v>0.1258160056791248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1558679662987765</v>
+        <v>0.1312909429187253</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1463965704660908</v>
+        <v>0.034278877552587</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2243480971871365</v>
+        <v>0.03414943351276845</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1865051050782331</v>
+        <v>0.04596516833112049</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2187614613780545</v>
+        <v>0.01234394461062654</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1495615050534306</v>
+        <v>0.00625707293479355</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1494649375431144</v>
+        <v>0.01132518522762799</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2372661008670073</v>
+        <v>0.0166141788129436</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2118946627375814</v>
+        <v>0.004705237954941057</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4155183602731074</v>
+        <v>0.008873178379321769</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4839456016271811</v>
+        <v>0.01377730369384153</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3120708893682161</v>
+        <v>0.02755193158866965</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5069703451423058</v>
+        <v>0.0232281302271337</v>
       </c>
       <c r="S3" t="n">
-        <v>0.627397098755602</v>
+        <v>0.0263525730239334</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4490145758164705</v>
+        <v>0.02307796398734427</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5729037598058824</v>
+        <v>0.02283156030014056</v>
       </c>
       <c r="V3" t="n">
-        <v>0.649743518804864</v>
+        <v>0.0267921458669533</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6674204760389214</v>
+        <v>0.03200583448845012</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6831879926682919</v>
+        <v>0.03458386221692971</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6418430168248077</v>
+        <v>0.02934951216535496</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6669554072042414</v>
+        <v>0.02590044285138782</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7010269220410708</v>
+        <v>0.02802897267588585</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6787118898474437</v>
+        <v>0.03114918017645255</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6684324618370302</v>
+        <v>0.03418964549442105</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1535092062511403</v>
+        <v>0.1481138263887414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1452535745346486</v>
+        <v>0.1372060262981492</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1356838778148711</v>
+        <v>0.1313922151580983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1067407490987323</v>
+        <v>0.1258159833570899</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1558677901132902</v>
+        <v>0.1312909269345341</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1463972499557411</v>
+        <v>0.0342793343762364</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2243471052637718</v>
+        <v>0.03415001285078299</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1865049083326526</v>
+        <v>0.04596580144849567</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1701481927527432</v>
+        <v>0.01234423737457904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1944733984381363</v>
+        <v>0.006257310890681359</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1673274048484259</v>
+        <v>0.005228132533303715</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1412493426766172</v>
+        <v>0.004313653732729617</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1149733780710879</v>
+        <v>0.006996619929625986</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05542723928356035</v>
+        <v>0.005701561060105124</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03836958701850404</v>
+        <v>0.004784601107839819</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0898257625769117</v>
+        <v>0.00260891054105078</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03804194152337328</v>
+        <v>0.002155915249409765</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009333820187688179</v>
+        <v>0.001134179587016732</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01889178323413029</v>
+        <v>0.0009530359518909588</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004443897824149001</v>
+        <v>0.000208769772734066</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001398854511313176</v>
+        <v>2.543588372265411e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003337682765420855</v>
+        <v>4.243974327757259e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001716524062265654</v>
+        <v>1.600079870040982e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.048819510915556e-05</v>
+        <v>2.526815595300751e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.953139802173081e-05</v>
+        <v>1.339257855595209e-07</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.321717612124248e-06</v>
+        <v>2.431773199752826e-08</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.170508285964241e-07</v>
+        <v>3.326429149312358e-09</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.280988815094319e-08</v>
+        <v>2.479351963567854e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.153515786292536</v>
+        <v>0.1481165836068209</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1452553944363968</v>
+        <v>0.1372031149445915</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356808776445419</v>
+        <v>0.1313865743827028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1067328145744983</v>
+        <v>0.1258075806410711</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1558672628762862</v>
+        <v>0.1312849099021851</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1463819806665086</v>
+        <v>0.03426970445337524</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2243592538579716</v>
+        <v>0.03413824742642638</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1865040296651393</v>
+        <v>0.04595252900378928</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1814103812848893</v>
+        <v>0.01233852782492155</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2104439206547387</v>
+        <v>0.006252851604198135</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2477148664766305</v>
+        <v>0.006326398732794464</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2154764577375257</v>
+        <v>0.006148942424774723</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2528607275012536</v>
+        <v>0.005150826594434686</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1549438982054129</v>
+        <v>0.006103483705563665</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1226818747818876</v>
+        <v>0.006035100939664487</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2110218987387958</v>
+        <v>0.004672436180123277</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1190925065969661</v>
+        <v>0.006279260567900066</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04770093278951559</v>
+        <v>0.004862831662693262</v>
       </c>
       <c r="T5" t="n">
-        <v>0.175386647453297</v>
+        <v>0.005077897196541387</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07277920432826919</v>
+        <v>0.003792892270867526</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03306974716142955</v>
+        <v>0.0009369003376604704</v>
       </c>
       <c r="W5" t="n">
-        <v>0.014762104458267</v>
+        <v>0.0002796275408858798</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01002894223300085</v>
+        <v>0.0001562029303878885</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01408034127108115</v>
+        <v>0.0007704498994475711</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00738175962283871</v>
+        <v>0.0002971081919048382</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00213048223977217</v>
+        <v>0.0001160566406580282</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00356719181515253</v>
+        <v>3.805584324714068e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000406488137486525</v>
+        <v>9.231705143466989e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1272423623305174</v>
+        <v>0.1347227248235845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1396805863871278</v>
+        <v>0.1517071313215407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1547978109560049</v>
+        <v>0.1610703049154413</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1830689810468299</v>
+        <v>0.1698492073310755</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1366362513998173</v>
+        <v>0.1608503890304961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136321567139653</v>
+        <v>0.266495852513217</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0747260756207391</v>
+        <v>0.2572185038516327</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1059791022697616</v>
+        <v>0.2417575027901633</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09603835782785207</v>
+        <v>0.2955693445126228</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1072753802918078</v>
+        <v>0.3000919153635269</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08624257138697623</v>
+        <v>0.2458844245632855</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07261721987333498</v>
+        <v>0.199352945101157</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05662673216613449</v>
+        <v>0.3471695701144702</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02584990903562918</v>
+        <v>0.2714405368459653</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01727065600781082</v>
+        <v>0.2238565587150717</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0384392326827283</v>
+        <v>0.1117978526372577</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01515924539140245</v>
+        <v>0.07799363115146171</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003320557725145389</v>
+        <v>0.03681630786654816</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00869666324020154</v>
+        <v>0.02873499396754967</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002447310196345811</v>
+        <v>0.00453379299217334</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0008713283423947784</v>
+        <v>0.0006813411447481541</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0002571311300188183</v>
+        <v>0.0001370179329607904</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001467299836913732</v>
+        <v>5.938701126855774e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.30636394512498e-05</v>
+        <v>0.0001876502105877899</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.73858308252052e-05</v>
+        <v>1.419263441614509e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.122137975581076e-06</v>
+        <v>2.632123301198035e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.913775473299726e-07</v>
+        <v>3.690925957451469e-07</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.269093012635975e-08</v>
+        <v>2.846104733696306e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1452440872369973</v>
+        <v>0.1444325642440577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1430965210894241</v>
+        <v>0.1410876124150725</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1399928238527731</v>
+        <v>0.1390377538789905</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1556762200004747</v>
+        <v>0.137228121635082</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1276979614400661</v>
+        <v>0.1393199651042397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1410998291245725</v>
+        <v>0.181929202254603</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08623567038556179</v>
+        <v>0.1902085538539474</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1117047437348982</v>
+        <v>0.1872521930635871</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1241379570976697</v>
+        <v>0.1871643958519228</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09874289339375444</v>
+        <v>0.1917391866488665</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1075375655153288</v>
+        <v>0.2938052808657453</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1257064436450935</v>
+        <v>0.3881918372004211</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1499302934400394</v>
+        <v>0.13385614909483</v>
       </c>
       <c r="O7" t="n">
-        <v>0.225433199031576</v>
+        <v>0.2517409981205788</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2434062549724076</v>
+        <v>0.3450825680000867</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1784262182831614</v>
+        <v>0.5968899550295809</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2307588842566031</v>
+        <v>0.6146761320739372</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2786500522875377</v>
+        <v>0.739679724386154</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2312625903338657</v>
+        <v>0.7517351327317598</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2938442155529388</v>
+        <v>0.8413524697344292</v>
       </c>
       <c r="V7" t="n">
-        <v>0.288910543106309</v>
+        <v>0.9347507340700442</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3041971661548976</v>
+        <v>0.9551443028246828</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2972043063391754</v>
+        <v>0.9577438160782834</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3238551304368965</v>
+        <v>0.938680749646298</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3140255467253729</v>
+        <v>0.9529730348451405</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2928239804099204</v>
+        <v>0.9622855356310693</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3059431602021779</v>
+        <v>0.9650460735477903</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3294924260143861</v>
+        <v>0.9646327740506487</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1278128841583774</v>
+        <v>0.1350703003152689</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1397513309724266</v>
+        <v>0.1513083706693343</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1541668130690537</v>
+        <v>0.1602169334453961</v>
       </c>
       <c r="E8" t="n">
-        <v>0.181959165477114</v>
+        <v>0.1686049314734283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362125308549778</v>
+        <v>0.1600645921026233</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136411580762004</v>
+        <v>0.263263892204076</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07502336708170798</v>
+        <v>0.254861542823777</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1060830330487505</v>
+        <v>0.2398943750892044</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09617851994568093</v>
+        <v>0.2915299293373826</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1076271463647836</v>
+        <v>0.296184943940372</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08697202360516108</v>
+        <v>0.2430205824583401</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0732447278511059</v>
+        <v>0.1972776722302685</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05729174812835355</v>
+        <v>0.341828127685689</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02635339480681024</v>
+        <v>0.2680559574942988</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01769651953067173</v>
+        <v>0.2213400748549901</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03987160364719131</v>
+        <v>0.1119211956481955</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01588360991735057</v>
+        <v>0.08002874159237984</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003534881998086493</v>
+        <v>0.03836914567665041</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007794949755319423</v>
+        <v>0.03027533916364165</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001942522468691368</v>
+        <v>0.004995445528116448</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0006367399598908558</v>
+        <v>0.0006502018658561945</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001629372413412257</v>
+        <v>0.0001152367070463773</v>
       </c>
       <c r="X8" t="n">
-        <v>8.682673906964497e-05</v>
+        <v>4.551997791314386e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.198341433409952e-05</v>
+        <v>9.079835990893152e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.058632047202041e-05</v>
+        <v>5.262441317529587e-06</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.316271530619218e-06</v>
+        <v>9.905475285874516e-07</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.470263369464789e-07</v>
+        <v>1.413351159380877e-07</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.310624929319817e-09</v>
+        <v>1.116047614692452e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407098109466433</v>
+        <v>0.1422468821875236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1421871286199376</v>
+        <v>0.1406692918488139</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1425469187477869</v>
+        <v>0.1392330971749388</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1626973773406807</v>
+        <v>0.1379030711534514</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1490817596819598</v>
+        <v>0.134948193915268</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1655832403687317</v>
+        <v>0.1088202872174921</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1856519396935784</v>
+        <v>0.08666187551893481</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1963437594828693</v>
+        <v>0.04442778387370352</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108553729173115</v>
+        <v>0.08353183544330781</v>
       </c>
       <c r="K2" t="n">
-        <v>0.235015539081515</v>
+        <v>0.07477691480276989</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2582670990762977</v>
+        <v>0.0753238764433828</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2590351299099622</v>
+        <v>0.079415974409473</v>
       </c>
       <c r="N2" t="n">
-        <v>0.176769899787655</v>
+        <v>0.09295904079509076</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1281137889492957</v>
+        <v>0.08594435461264897</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08896916019805086</v>
+        <v>0.08232752808214082</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07457907582148017</v>
+        <v>0.09627183365889712</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05532273919947706</v>
+        <v>0.09871180715405976</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02040655869662485</v>
+        <v>0.08917961064907684</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03741051755126645</v>
+        <v>0.06212305125143387</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01938057747403544</v>
+        <v>0.04101657680683653</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02113300897738796</v>
+        <v>0.01625725506364018</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01109175348573742</v>
+        <v>0.00214802691206091</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006611102758177046</v>
+        <v>0.0008054411657600247</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006780323333846141</v>
+        <v>0.0001778842211255567</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001968459375714063</v>
+        <v>5.91063353115095e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.838890596677367e-05</v>
+        <v>2.404306287010858e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.308547843798132e-06</v>
+        <v>1.35169704309219e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.579784939708981e-08</v>
+        <v>1.055856179805903e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494582022075891</v>
+        <v>0.1453872523730916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447320723155272</v>
+        <v>0.1501732937963635</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1458694504060308</v>
+        <v>0.1546275098373915</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1107117208955143</v>
+        <v>0.1580419577557474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133991976414467</v>
+        <v>0.16520784446119</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1056350501270045</v>
+        <v>0.2015776717608488</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07361513897359799</v>
+        <v>0.2313838903287257</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04236247642864836</v>
+        <v>0.2839728137427905</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01367165779284446</v>
+        <v>0.2349552738495546</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009954310822320697</v>
+        <v>0.2493199899889663</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01768660189590381</v>
+        <v>0.2821871578537908</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004841630591515453</v>
+        <v>0.2297317877157227</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001288822765810112</v>
+        <v>0.1943354364958889</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004858192905906122</v>
+        <v>0.2784194932583482</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002030124020046721</v>
+        <v>0.3251225373533977</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.105077405873133e-05</v>
+        <v>0.1906558431415222</v>
       </c>
       <c r="R3" t="n">
-        <v>2.118272351603953e-05</v>
+        <v>0.07703708572841805</v>
       </c>
       <c r="S3" t="n">
-        <v>3.06805584042228e-06</v>
+        <v>0.02177175126634464</v>
       </c>
       <c r="T3" t="n">
-        <v>1.738086869299396e-05</v>
+        <v>0.008156993686441403</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1129251698513e-06</v>
+        <v>0.002433022547567344</v>
       </c>
       <c r="V3" t="n">
-        <v>6.041584631689038e-07</v>
+        <v>0.0004102071497936369</v>
       </c>
       <c r="W3" t="n">
-        <v>1.827032624583539e-07</v>
+        <v>5.789153701745187e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>7.327706854055459e-08</v>
+        <v>1.025127621517149e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.005317701740324e-09</v>
+        <v>1.370639467146299e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.762739369005867e-11</v>
+        <v>2.418913731843117e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.754417311996241e-13</v>
+        <v>6.895941548294281e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.328500756915688e-14</v>
+        <v>3.058948829318979e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.722267775264328e-16</v>
+        <v>2.148651534884963e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494582126047027</v>
+        <v>0.1453872556680483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1447320754519901</v>
+        <v>0.1501733046591069</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1458694531974659</v>
+        <v>0.1546275275733903</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1107121349717645</v>
+        <v>0.1580419815501193</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1339920744099585</v>
+        <v>0.1652078815053689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1056354808405338</v>
+        <v>0.2015767853737548</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07361583017087418</v>
+        <v>0.2313820824945197</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04236309524175949</v>
+        <v>0.2839682874220072</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05192544161579165</v>
+        <v>0.234953117070871</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05117181689374376</v>
+        <v>0.2493185165288109</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04441781389229955</v>
+        <v>0.2134988294785049</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05317348782848464</v>
+        <v>0.2473794438026185</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06208116919835844</v>
+        <v>0.2292272994680459</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06269760318893891</v>
+        <v>0.1696187298405341</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06065105320670039</v>
+        <v>0.1293567607276403</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06400237096944519</v>
+        <v>0.2123117453617271</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06099243215831739</v>
+        <v>0.3149758453821383</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05188087695528747</v>
+        <v>0.4022480352666392</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04492719465056711</v>
+        <v>0.4766323162881199</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04583807937171913</v>
+        <v>0.5270376152099164</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03537282858410293</v>
+        <v>0.6375432455428129</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04530788286519032</v>
+        <v>0.7969941385433976</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05521303241326567</v>
+        <v>0.8251136419772661</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0520401839248749</v>
+        <v>0.8741147160563435</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04918162325258955</v>
+        <v>0.8911883442435106</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05323474973409311</v>
+        <v>0.8973238064747798</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04573707291095222</v>
+        <v>0.9008367177107076</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01025688636576148</v>
+        <v>0.9021120686958326</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494621265988084</v>
+        <v>0.1453884959824965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144733256191022</v>
+        <v>0.1501773938651803</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1458705038595461</v>
+        <v>0.1546342041874401</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1107057295732584</v>
+        <v>0.1580509389055828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1339913711356868</v>
+        <v>0.1652218269466591</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1056287464455383</v>
+        <v>0.2016100919274676</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07360430048767179</v>
+        <v>0.2314341360850954</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0423525960348047</v>
+        <v>0.2840725300172658</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04517932057208249</v>
+        <v>0.2350115886504059</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05045595172186966</v>
+        <v>0.249366303016829</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05581214620827731</v>
+        <v>0.2522437963449602</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05545222028775926</v>
+        <v>0.2652146860407106</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03730279152260702</v>
+        <v>0.3117583799103875</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02722830658636551</v>
+        <v>0.2899979608272633</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01902938634745415</v>
+        <v>0.2793903891898813</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01612709945344067</v>
+        <v>0.3291648575521494</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01201915068653992</v>
+        <v>0.3408480286545238</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004501505858403627</v>
+        <v>0.3116102654173935</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007156488441772108</v>
+        <v>0.2190749293449799</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004402127925981169</v>
+        <v>0.146199018889387</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005598896972215288</v>
+        <v>0.06804832240240598</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003254501144739947</v>
+        <v>0.01010117578181607</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002092538233076092</v>
+        <v>0.004349236062540678</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003782888685628927</v>
+        <v>0.001082498835272444</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003642531184801962</v>
+        <v>0.000409387732831339</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.440390720462281e-05</v>
+        <v>0.0001824639225389035</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.387375394749277e-06</v>
+        <v>0.0001090112848667275</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.117425087389461e-07</v>
+        <v>8.752591641142888e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330303548434384</v>
+        <v>0.1388600989623832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401303903411292</v>
+        <v>0.1317553642455773</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1376608121339371</v>
+        <v>0.1251044545369347</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1696687949967374</v>
+        <v>0.1202572200454285</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1487310756984522</v>
+        <v>0.1102619403656265</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1742965952802052</v>
+        <v>0.0835013126874269</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2016837405135641</v>
+        <v>0.06228790590984092</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2369988972663875</v>
+        <v>0.02784476431451548</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2914189517355474</v>
+        <v>0.06017179326189176</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2818667803164652</v>
+        <v>0.04815563516745109</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2382817734984038</v>
+        <v>0.04045212811346695</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2853259189413597</v>
+        <v>0.04733919584538866</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3530263641248356</v>
+        <v>0.04241438856715424</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3903384760220867</v>
+        <v>0.03060074507569739</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4208340547453956</v>
+        <v>0.02269895839112843</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4276379395907454</v>
+        <v>0.04060632001504506</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4440195601721468</v>
+        <v>0.063169212487502</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4778337868206095</v>
+        <v>0.08024342665285832</v>
       </c>
       <c r="T6" t="n">
-        <v>0.500323831007257</v>
+        <v>0.1152131813299485</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5013890763232939</v>
+        <v>0.1429505421989327</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5596339469814103</v>
+        <v>0.1253500795437581</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5110674960688282</v>
+        <v>0.05644921666309909</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4663039786014028</v>
+        <v>0.04293654667175292</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4596004960774496</v>
+        <v>0.02190464613019533</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4555808911217583</v>
+        <v>0.0151479910344224</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4715843826638276</v>
+        <v>0.01465990344088145</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4726106483307015</v>
+        <v>0.01436828351839011</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3946885406439785</v>
+        <v>0.0142615634338927</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444733966196949</v>
+        <v>0.1436891559733102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432579453346183</v>
+        <v>0.1448459832899874</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1442306230643186</v>
+        <v>0.1459644345960674</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1658535305638911</v>
+        <v>0.1465857915770526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1513091416622801</v>
+        <v>0.1477252223595041</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1689782686245591</v>
+        <v>0.1183805987521168</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1902971903281509</v>
+        <v>0.09367383199753775</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2034320929787498</v>
+        <v>0.04736419885212157</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09662385512549622</v>
+        <v>0.09034084178318995</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09034350167519276</v>
+        <v>0.08004795751815964</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1473735599985951</v>
+        <v>0.09506364799921085</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0569601115529098</v>
+        <v>0.0827027338399547</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01808660880613034</v>
+        <v>0.08599975867357131</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007543065477463961</v>
+        <v>0.1141182809349021</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003385511917971252</v>
+        <v>0.1378395004055221</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008468565915922574</v>
+        <v>0.0898687722149719</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004593624991880667</v>
+        <v>0.04159070183075175</v>
       </c>
       <c r="S7" t="n">
-        <v>7.353042067587597e-05</v>
+        <v>0.01376267433323811</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003862528200299714</v>
+        <v>0.005560018278824748</v>
       </c>
       <c r="U7" t="n">
-        <v>7.700791407876444e-05</v>
+        <v>0.00183478495651436</v>
       </c>
       <c r="V7" t="n">
-        <v>1.753913195999129e-05</v>
+        <v>0.0003357613630774666</v>
       </c>
       <c r="W7" t="n">
-        <v>5.603370558847316e-06</v>
+        <v>4.589229810884664e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.335835152041706e-06</v>
+        <v>8.751014257335418e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.048516644350232e-07</v>
+        <v>1.221814856999997e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.172522378172109e-09</v>
+        <v>2.285458051971173e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.713082782174585e-11</v>
+        <v>6.711283263511316e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.340675699597189e-13</v>
+        <v>3.036062363265103e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.473943278928618e-14</v>
+        <v>2.151198268072043e-08</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1334078961791233</v>
+        <v>0.1390408588531467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1402271317457753</v>
+        <v>0.1322053682949705</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1379522385909144</v>
+        <v>0.1258087720938371</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1696507116581536</v>
+        <v>0.1211190390126182</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489026009971953</v>
+        <v>0.1114270904463835</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1742426183134274</v>
+        <v>0.08453325228089296</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2015318598325626</v>
+        <v>0.06317627766534564</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2361470825667809</v>
+        <v>0.02834962177759591</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2903254002409263</v>
+        <v>0.06103554994077893</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2811920994888931</v>
+        <v>0.04901468297701312</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2381610054302228</v>
+        <v>0.04123056376668335</v>
       </c>
       <c r="M8" t="n">
-        <v>0.285211500888009</v>
+        <v>0.04821617834613186</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3514443437946034</v>
+        <v>0.04330569608986141</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3835929404852586</v>
+        <v>0.03130043545060591</v>
       </c>
       <c r="P8" t="n">
-        <v>0.406927821182423</v>
+        <v>0.02326432585028941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4167656067992375</v>
+        <v>0.04112062805568732</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4271655725608148</v>
+        <v>0.06366731876260634</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4453006731925582</v>
+        <v>0.08118423641444926</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4097783346604144</v>
+        <v>0.1132395098202518</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4289100180657217</v>
+        <v>0.1385284393908457</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3782431751944603</v>
+        <v>0.1520551289345117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4292725803616828</v>
+        <v>0.1342036582645</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4697769388818578</v>
+        <v>0.1267761318322077</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4777958971212182</v>
+        <v>0.1027176623027391</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4896264938549862</v>
+        <v>0.09319470021674595</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4750780747609016</v>
+        <v>0.08780964702668144</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4816485828343502</v>
+        <v>0.08467240956549252</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5950544054498764</v>
+        <v>0.08352824039356718</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1452105117012723</v>
+        <v>0.146049962352775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476487596793334</v>
+        <v>0.146843160168397</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1479850147313629</v>
+        <v>0.1480486041673338</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1543903060046675</v>
+        <v>0.1493977180516775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1705718393131661</v>
+        <v>0.1500629835484044</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1762593784128916</v>
+        <v>0.1612851655687576</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1976142660557887</v>
+        <v>0.1459650328537042</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2060536993368474</v>
+        <v>0.132626536893143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2303987981647506</v>
+        <v>0.1062904231656414</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2501599378199307</v>
+        <v>0.07217362882635953</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2673420577118384</v>
+        <v>0.07184147580223525</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2959937194895984</v>
+        <v>0.07053462611458515</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3542138953636152</v>
+        <v>0.06238960000771164</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3334170547637829</v>
+        <v>0.06753596195688817</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4104271656628726</v>
+        <v>0.07764772401039584</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.285523729103549</v>
+        <v>0.09868871207394413</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2949790491691515</v>
+        <v>0.1092654243805776</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3912831322200734</v>
+        <v>0.1317714423244605</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4009740531954644</v>
+        <v>0.1324079259925102</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2719338870727076</v>
+        <v>0.08834360587197963</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1707437417623822</v>
+        <v>0.04494400848544738</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3445831081909629</v>
+        <v>0.07015369584061364</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6745873377021034</v>
+        <v>0.08636084191195813</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7176097453981513</v>
+        <v>0.2568495401556738</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5856248342162013</v>
+        <v>0.1916881923596096</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6718558583887505</v>
+        <v>0.1059021478094174</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7590277670673761</v>
+        <v>0.192062453705508</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5418947436696514</v>
+        <v>0.1570177794954173</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1354338344374321</v>
+        <v>0.1332658341565046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1263872813402847</v>
+        <v>0.1288385279521753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1280955777636775</v>
+        <v>0.1201204095420526</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1218829206407799</v>
+        <v>0.1141953846976299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08901153603926874</v>
+        <v>0.1059239079899968</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09108821780509577</v>
+        <v>0.07825500364247838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05797008498362622</v>
+        <v>0.1117676305890048</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06705431997108292</v>
+        <v>0.1383719688391027</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03572926300299515</v>
+        <v>0.184017272688461</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03028429673100372</v>
+        <v>0.2402060491170428</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01472079968293049</v>
+        <v>0.1338580692528942</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009672246429623318</v>
+        <v>0.08155813932136577</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008430574669667068</v>
+        <v>0.02586012100903866</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003017912700706614</v>
+        <v>0.04109867090085678</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01042742817883924</v>
+        <v>0.07492875435314122</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001986192750604343</v>
+        <v>0.0928047625554919</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005258254796635894</v>
+        <v>0.04334601859978376</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003776259538188923</v>
+        <v>0.02100934149334713</v>
       </c>
       <c r="T3" t="n">
-        <v>4.752584033581289e-05</v>
+        <v>0.01186929973206107</v>
       </c>
       <c r="U3" t="n">
-        <v>1.455086980140401e-05</v>
+        <v>0.003066966491156534</v>
       </c>
       <c r="V3" t="n">
-        <v>1.011080947508939e-06</v>
+        <v>0.0005700920458893798</v>
       </c>
       <c r="W3" t="n">
-        <v>4.863698651151263e-07</v>
+        <v>0.0002240430058215992</v>
       </c>
       <c r="X3" t="n">
-        <v>5.85586765749159e-07</v>
+        <v>2.842482177501571e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.899758511733215e-08</v>
+        <v>0.0002093374785439783</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.640109720617261e-09</v>
+        <v>5.144775879196549e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.50410839974939e-09</v>
+        <v>1.425697324490727e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.211312070526827e-10</v>
+        <v>8.016469215926129e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.450641597641461e-11</v>
+        <v>2.899394032227828e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1354338230907142</v>
+        <v>0.1332658190125433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1263872575411925</v>
+        <v>0.1288385077418918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1280955543706084</v>
+        <v>0.1201203802177971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1218832933015017</v>
+        <v>0.1141953481220596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08901213819675655</v>
+        <v>0.1059238641575233</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09108906704808553</v>
+        <v>0.07825523959149926</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05797106184469566</v>
+        <v>0.111767385704162</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06705565880379737</v>
+        <v>0.1383712410927801</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07541100306374186</v>
+        <v>0.1840152802199622</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0748548060483301</v>
+        <v>0.2402027794261192</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0815291157418372</v>
+        <v>0.3179724581030967</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08107959626356553</v>
+        <v>0.3599897764516047</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07188779492220804</v>
+        <v>0.4238517112029709</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08256170573337289</v>
+        <v>0.4002835253022874</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06221759541248094</v>
+        <v>0.3495270704375117</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08968131637881679</v>
+        <v>0.2890681728398359</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09657264111589173</v>
+        <v>0.3114245077383294</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09299497533270221</v>
+        <v>0.2774100279842454</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08123610502348509</v>
+        <v>0.2918486702703108</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1270874539465476</v>
+        <v>0.4133063948257262</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1371961675064408</v>
+        <v>0.5386353771186085</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05949957570688394</v>
+        <v>0.4455653599953076</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003343410735640066</v>
+        <v>0.3493489260073092</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003684499078992971</v>
+        <v>0.1042363406224969</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001336058541196488</v>
+        <v>0.1174158734239619</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.036992710994839e-05</v>
+        <v>0.2453539704573121</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.678305901527479e-07</v>
+        <v>0.02918003676041643</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.092200535579799e-08</v>
+        <v>0.008080710300387491</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1354295516726802</v>
+        <v>0.1332601180903753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1263782986312401</v>
+        <v>0.1288308997757927</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1280867481485101</v>
+        <v>0.1201093416913477</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1218680086877643</v>
+        <v>0.1141815800726363</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08899520663137504</v>
+        <v>0.1059073647326091</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09106766620566709</v>
+        <v>0.07823835915206782</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05794981375074282</v>
+        <v>0.1117534490236588</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06702742939042601</v>
+        <v>0.1383614099890689</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07477489977730815</v>
+        <v>0.1840201222060127</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08122211660873593</v>
+        <v>0.2402207916680367</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08649399485743867</v>
+        <v>0.2373189544729152</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09570299765015509</v>
+        <v>0.2318893795278624</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1150320658361611</v>
+        <v>0.2028808512371416</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1090140455545101</v>
+        <v>0.2204792036983157</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1327141756674276</v>
+        <v>0.2553863005872427</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09378065237948753</v>
+        <v>0.3218587848845634</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09756181406863094</v>
+        <v>0.3579767635271566</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1294903092233222</v>
+        <v>0.4302347594705088</v>
       </c>
       <c r="T5" t="n">
-        <v>0.142562324892749</v>
+        <v>0.4342892443632488</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1090899621819271</v>
+        <v>0.2941398182228289</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08982261431646842</v>
+        <v>0.179322605950906</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1731923349657365</v>
+        <v>0.259879446992887</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2578214355517826</v>
+        <v>0.3496492768166983</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2743308839802882</v>
+        <v>0.5685747058781303</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.411130354263369</v>
+        <v>0.5668987047351642</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3278733666702354</v>
+        <v>0.3806942938631024</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2409559773690352</v>
+        <v>0.7460760986822174</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4581048983456374</v>
+        <v>0.8249085233689806</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1539837235054982</v>
+        <v>0.1570689507886616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1680079572148882</v>
+        <v>0.1643488752599153</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1645365968345917</v>
+        <v>0.1790521352758652</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1677139553627447</v>
+        <v>0.1885123551388187</v>
       </c>
       <c r="F6" t="n">
-        <v>0.200993004749078</v>
+        <v>0.2029705780499898</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1925681904046573</v>
+        <v>0.2340151507757891</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2212335575088011</v>
+        <v>0.1979870920369243</v>
       </c>
       <c r="I6" t="n">
-        <v>0.200044393722487</v>
+        <v>0.1704587979671694</v>
       </c>
       <c r="J6" t="n">
-        <v>0.223238833003478</v>
+        <v>0.1263550786442401</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2170886323964141</v>
+        <v>0.0736249343632632</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2337987597800526</v>
+        <v>0.100798327599381</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2257532476732658</v>
+        <v>0.1153821322270649</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1903603557744447</v>
+        <v>0.1379827828355563</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2202671113679459</v>
+        <v>0.1283791968639058</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1460983828447165</v>
+        <v>0.108628768478345</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.254258547610598</v>
+        <v>0.07967790251717458</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2494504528433599</v>
+        <v>0.07774101659019819</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1841629938364373</v>
+        <v>0.06181484875767163</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1912755388410932</v>
+        <v>0.058783706627788</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2297044839643934</v>
+        <v>0.09716978033379964</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2937751036215095</v>
+        <v>0.1076964110748538</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2534561524584261</v>
+        <v>0.1099750189031831</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05021156441205341</v>
+        <v>0.1156633053495261</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005942019947869664</v>
+        <v>0.03986316750085512</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002367898642014109</v>
+        <v>0.08049693625590928</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001959476261400229</v>
+        <v>0.1734055920752531</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.157327848243205e-05</v>
+        <v>0.02102208786637007</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.479241250077419e-07</v>
+        <v>0.006286115704648253</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1409549928501424</v>
+        <v>0.1405510196014043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1382091141665078</v>
+        <v>0.1388501979828925</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394233441669667</v>
+        <v>0.1351914486387845</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1451885705322234</v>
+        <v>0.1331258500283223</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1616670442451332</v>
+        <v>0.1291945962939835</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1660496746708562</v>
+        <v>0.1398084867650244</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1868739649028173</v>
+        <v>0.1256795355337956</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192539981324963</v>
+        <v>0.1135940466813729</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1368725832525374</v>
+        <v>0.09033389342534826</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1286380572993615</v>
+        <v>0.06043302696045114</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08139198290970358</v>
+        <v>0.03831965817120574</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06464520058917059</v>
+        <v>0.02638727940904162</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06782596461779122</v>
+        <v>0.01053030263011401</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02919149050305163</v>
+        <v>0.01508405703713402</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08780499529242462</v>
+        <v>0.02605911080464715</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01996909532222541</v>
+        <v>0.03744961437442205</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006868692926094307</v>
+        <v>0.02044249937937371</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005630793568139986</v>
+        <v>0.01323389862123752</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001029339856650583</v>
+        <v>0.008223671606077777</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003451184879475944</v>
+        <v>0.002357045197805853</v>
       </c>
       <c r="V7" t="n">
-        <v>2.999150413601217e-05</v>
+        <v>0.0004821709577258801</v>
       </c>
       <c r="W7" t="n">
-        <v>1.820852405483771e-05</v>
+        <v>0.0002950918517413069</v>
       </c>
       <c r="X7" t="n">
-        <v>2.536193327149115e-05</v>
+        <v>4.553348031344006e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.731017408355466e-06</v>
+        <v>0.0003648963423720797</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.47583515837239e-07</v>
+        <v>9.716161025790885e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.377108988203728e-07</v>
+        <v>2.839464287236787e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.080116383617245e-07</v>
+        <v>1.747832032737926e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.469644893229433e-09</v>
+        <v>6.65862577520918e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1535535627422605</v>
+        <v>0.1565382959977357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1669813314265534</v>
+        <v>0.1634498311189356</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1637771639842827</v>
+        <v>0.1773576804668193</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1670729454703184</v>
+        <v>0.1863917638888556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997492308252223</v>
+        <v>0.2000167052274931</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1918778054527464</v>
+        <v>0.2301425945043835</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2203872509535282</v>
+        <v>0.1950798742587503</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2002245174503963</v>
+        <v>0.168215998537363</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2235746197351888</v>
+        <v>0.1249679296503343</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2177521530962238</v>
+        <v>0.07313878963872751</v>
       </c>
       <c r="L8" t="n">
-        <v>0.234723289316199</v>
+        <v>0.09989105659827201</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2271529919046213</v>
+        <v>0.1142586669484755</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1922493488161128</v>
+        <v>0.136504631077467</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2225306793766298</v>
+        <v>0.1271393842406121</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1503102569412384</v>
+        <v>0.1078222713287165</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.254800466454719</v>
+        <v>0.08045205075456817</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2540415243972082</v>
+        <v>0.07980376978458073</v>
       </c>
       <c r="S8" t="n">
-        <v>0.196060169865506</v>
+        <v>0.06452568134852897</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1828751123502219</v>
+        <v>0.06257748140800354</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2618245434766753</v>
+        <v>0.1016163890567032</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3084313702081156</v>
+        <v>0.1283493343665692</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1692501337840704</v>
+        <v>0.1139073434104457</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01401030407838347</v>
+        <v>0.09890369161241989</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001744080750798126</v>
+        <v>0.02990201202192789</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007429538006704349</v>
+        <v>0.04335168385630509</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.431817275687161e-05</v>
+        <v>0.09460134417879779</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.00562174656771e-06</v>
+        <v>0.01163382819594463</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.262442973174852e-08</v>
+        <v>0.003697313110759304</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450258706616232</v>
+        <v>0.1456421614803363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146040531134624</v>
+        <v>0.1463837060406821</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438562760018361</v>
+        <v>0.1467633054192564</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1270002009068073</v>
+        <v>0.1469659773629534</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09691061945962282</v>
+        <v>0.1480919128797571</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456900483792438</v>
+        <v>0.1474174452661133</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664347256426404</v>
+        <v>0.1073640585045059</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1494012316613207</v>
+        <v>0.1099915019989809</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1419997633561439</v>
+        <v>0.08634212904902661</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638440042978865</v>
+        <v>0.1112479147046986</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1697494299545443</v>
+        <v>0.122333222239245</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1527426001517633</v>
+        <v>0.1111771736139047</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1859478613445582</v>
+        <v>0.09134918210212517</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2070269196233972</v>
+        <v>0.09744062762813069</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1875894664925303</v>
+        <v>0.1226257184154771</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07679876945916002</v>
+        <v>0.179293291646941</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04307805407658791</v>
+        <v>0.1493261867472338</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02016358892452515</v>
+        <v>0.07306235371505412</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05680065448243068</v>
+        <v>0.02833967926555171</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02705783736774123</v>
+        <v>0.04316748550196516</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03906744127990511</v>
+        <v>0.01688488481905716</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02372496080238962</v>
+        <v>0.008657668486843852</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01538648071337709</v>
+        <v>0.006635189961744441</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002134854401395606</v>
+        <v>0.003803076294778681</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002333717896176335</v>
+        <v>0.0008782572522178199</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.718335313616714e-05</v>
+        <v>0.0003438682130582624</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.284458396246791e-05</v>
+        <v>0.0001849659782722115</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.914861750931328e-07</v>
+        <v>0.0001324982629585022</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1362734764666019</v>
+        <v>0.128214838302364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1315029084808448</v>
+        <v>0.1232748830639517</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1420466582871203</v>
+        <v>0.1198121527552408</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169332768785092</v>
+        <v>0.1240379117070464</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2145636036337286</v>
+        <v>0.1112462018482856</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1433265698118822</v>
+        <v>0.1231813119586643</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1042604151091854</v>
+        <v>0.1884206828990069</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1365002936164235</v>
+        <v>0.1904510087720104</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2125679430888179</v>
+        <v>0.2252534992997799</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05376591573895758</v>
+        <v>0.1856512321146522</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1023405767947007</v>
+        <v>0.06486106216949997</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04870200260689489</v>
+        <v>0.03924241692804881</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03585865284403879</v>
+        <v>0.01555517651727014</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009054136715380029</v>
+        <v>0.00471485624963829</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00129840549018412</v>
+        <v>0.01847014793150599</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001944635846009097</v>
+        <v>0.04254743512993719</v>
       </c>
       <c r="R3" t="n">
-        <v>3.805756499367104e-05</v>
+        <v>0.01228294565622731</v>
       </c>
       <c r="S3" t="n">
-        <v>4.420390611970425e-06</v>
+        <v>0.002891420261817069</v>
       </c>
       <c r="T3" t="n">
-        <v>3.886903764368224e-05</v>
+        <v>0.0004935332839805279</v>
       </c>
       <c r="U3" t="n">
-        <v>1.600894106987092e-06</v>
+        <v>0.0002608107765076645</v>
       </c>
       <c r="V3" t="n">
-        <v>3.348583580656785e-07</v>
+        <v>5.916005278397244e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.054258981985032e-07</v>
+        <v>1.298788130703042e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>2.170107427167075e-08</v>
+        <v>3.634824583554692e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.893633263355716e-09</v>
+        <v>1.428228928707541e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.576461187484323e-11</v>
+        <v>1.963634685694163e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.501773612135081e-12</v>
+        <v>5.380917045877718e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.99144655574583e-13</v>
+        <v>2.280208997544645e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.826828723649215e-14</v>
+        <v>1.435234609421546e-08</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1362734662132917</v>
+        <v>0.1282148208721254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1315028923184936</v>
+        <v>0.123274860150181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142046654863659</v>
+        <v>0.119812126321513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1693323292404242</v>
+        <v>0.1240378878445871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2145623096202057</v>
+        <v>0.1112461660125496</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433267703276292</v>
+        <v>0.1231816854486276</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1042609313360081</v>
+        <v>0.1884197718986221</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1365006099881313</v>
+        <v>0.190451161059771</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09505016770122762</v>
+        <v>0.2252527590908149</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1758528056449825</v>
+        <v>0.1856512382821277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1424685768448751</v>
+        <v>0.2495207200143175</v>
       </c>
       <c r="M4" t="n">
-        <v>0.184581369522205</v>
+        <v>0.2768802038402091</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1736526181026735</v>
+        <v>0.3124251579560793</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1886217756194347</v>
+        <v>0.3174423654494112</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2124720997550633</v>
+        <v>0.2806052125514162</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2343807466887391</v>
+        <v>0.2069964362993806</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2347435512498079</v>
+        <v>0.2704247473244513</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2335514074406948</v>
+        <v>0.3426434221156934</v>
       </c>
       <c r="T4" t="n">
-        <v>0.188423945211307</v>
+        <v>0.3714129163969988</v>
       </c>
       <c r="U4" t="n">
-        <v>0.18767049590233</v>
+        <v>0.3980998283005915</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1428950856045849</v>
+        <v>0.4934683540898331</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1559950444132161</v>
+        <v>0.4985495103734396</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08659303613921983</v>
+        <v>0.4320074822313289</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1006615002011619</v>
+        <v>0.4795431918065805</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0943756553812317</v>
+        <v>0.5930682879090552</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1247204597555784</v>
+        <v>0.6104506193696272</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1072155210302263</v>
+        <v>0.6209166755738056</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09479826498019339</v>
+        <v>0.6259501388495659</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1362696063918786</v>
+        <v>0.1282082597433351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1314968081866342</v>
+        <v>0.1232662349223609</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1420453659108127</v>
+        <v>0.1198021761485191</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1693384066053751</v>
+        <v>0.1240289053263035</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2145828972732355</v>
+        <v>0.1112326767928445</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1433219027067786</v>
+        <v>0.1231595242848243</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1042509152245718</v>
+        <v>0.1884117882747125</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1364937813109763</v>
+        <v>0.1904243261214078</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1308484033365103</v>
+        <v>0.2252371107237264</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1485791307042837</v>
+        <v>0.1856275675446085</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1550163399117109</v>
+        <v>0.2020921450350993</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1382193467195467</v>
+        <v>0.1827050431239654</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1689568094986641</v>
+        <v>0.1486871191694041</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1886568891077476</v>
+        <v>0.1580081311058974</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1727327859450472</v>
+        <v>0.2013827722229042</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07199109643722693</v>
+        <v>0.2896122286512738</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04092266761527784</v>
+        <v>0.2447479217007272</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01953027855056</v>
+        <v>0.122038495528205</v>
       </c>
       <c r="T5" t="n">
-        <v>0.042797128012783</v>
+        <v>0.04843993862206188</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02811154159795593</v>
+        <v>0.07409996194597956</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0441685231837536</v>
+        <v>0.03253286686134386</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02987230630346731</v>
+        <v>0.01948039582227487</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02435500993261529</v>
+        <v>0.01820504575399077</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003899951497658584</v>
+        <v>0.01119501396002154</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001496128721380589</v>
+        <v>0.002916169028973828</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001213434996196283</v>
+        <v>0.001252480710202184</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001205899737625989</v>
+        <v>0.0007171623861130206</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.96155429809481e-06</v>
+        <v>0.0005317593897109564</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1526415350565182</v>
+        <v>0.166749010282936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603168548594095</v>
+        <v>0.1750087165756282</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1432815587829532</v>
+        <v>0.1809421814618354</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1194359631868284</v>
+        <v>0.1730069693898293</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08194565174182558</v>
+        <v>0.195233310216907</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1396482222024511</v>
+        <v>0.1781374049015158</v>
       </c>
       <c r="H6" t="n">
-        <v>0.176999562901228</v>
+        <v>0.1177645856933734</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1461013116202552</v>
+        <v>0.1124360450113649</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09826955190262401</v>
+        <v>0.08228994820386631</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1889507307867263</v>
+        <v>0.118403791478151</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1490052911870695</v>
+        <v>0.1598529799431965</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2020878994235743</v>
+        <v>0.1817012846921719</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1827409781223941</v>
+        <v>0.2106661040675935</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1891820565345147</v>
+        <v>0.2094183604346697</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2087460394986738</v>
+        <v>0.1796793204028971</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.31226968813261</v>
+        <v>0.1162741444289844</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3474325310883364</v>
+        <v>0.1530330707578627</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3716240787817109</v>
+        <v>0.2286498001825346</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3989087152990836</v>
+        <v>0.2777533234458828</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4306709281801923</v>
+        <v>0.2403357036264884</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4882594264034453</v>
+        <v>0.1937427403910373</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4817088669878647</v>
+        <v>0.1952026150983574</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6194136717293582</v>
+        <v>0.2568161996272745</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6468324076659623</v>
+        <v>0.2179722298523225</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6463810744352112</v>
+        <v>0.1224960426761603</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6573753260284144</v>
+        <v>0.1204227693976808</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6521156386725508</v>
+        <v>0.1189765840811941</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7311449527180354</v>
+        <v>0.1182488905252224</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1412397023664597</v>
+        <v>0.13741809760882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13955580846871</v>
+        <v>0.1354256363232086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1433575075666851</v>
+        <v>0.1339105628475103</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1258554205220409</v>
+        <v>0.1363556338465205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09505147353678806</v>
+        <v>0.1304538889653548</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1447614562000315</v>
+        <v>0.1288196740854831</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1669955159832129</v>
+        <v>0.09289153408164191</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1487072037411701</v>
+        <v>0.09455810979089489</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2226202128272046</v>
+        <v>0.07371811855012386</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07983867794820595</v>
+        <v>0.09596103640570246</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1319550330577188</v>
+        <v>0.04279904302153524</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07162466929353582</v>
+        <v>0.02839620234607798</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0696154306865551</v>
+        <v>0.01312577587396653</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02630935685230556</v>
+        <v>0.005677747042532418</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005254040509904218</v>
+        <v>0.01900582418520502</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008611360600315376</v>
+        <v>0.04793659887624358</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001931688754652234</v>
+        <v>0.01543118405468874</v>
       </c>
       <c r="S7" t="n">
-        <v>2.617360933181998e-05</v>
+        <v>0.003780808819393426</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002386364598633774</v>
+        <v>0.0006676617059355803</v>
       </c>
       <c r="U7" t="n">
-        <v>1.17251305623597e-05</v>
+        <v>0.0004097124457134342</v>
       </c>
       <c r="V7" t="n">
-        <v>3.031543520300764e-06</v>
+        <v>9.809256970263547e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.022930250479607e-06</v>
+        <v>2.339484164374345e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.324197731046205e-07</v>
+        <v>7.153665654237575e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.099614145957162e-08</v>
+        <v>2.919202220167763e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.981185869314338e-10</v>
+        <v>4.199287252047886e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.781710420776706e-11</v>
+        <v>1.18530647551828e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.151780629615331e-11</v>
+        <v>5.121782719455516e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.135504545574792e-13</v>
+        <v>3.257473358040279e-08</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1522763428436265</v>
+        <v>0.165552811710083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1595841965512838</v>
+        <v>0.1733659629239876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1433659785869336</v>
+        <v>0.1789574950461251</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119704910753432</v>
+        <v>0.1715667145227598</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08238344473459368</v>
+        <v>0.1924958432843014</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1399250303719835</v>
+        <v>0.1761029540547713</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1767979338031535</v>
+        <v>0.1167275786481374</v>
       </c>
       <c r="I8" t="n">
-        <v>0.146295568061723</v>
+        <v>0.1116878472455703</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09864395778747173</v>
+        <v>0.08190643508266202</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1891687348789575</v>
+        <v>0.1174572194700596</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1494647522493806</v>
+        <v>0.1585408275771066</v>
       </c>
       <c r="M8" t="n">
-        <v>0.20204211228248</v>
+        <v>0.1798976754556222</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1832276494011163</v>
+        <v>0.2081914843135613</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1911488655472203</v>
+        <v>0.2072979120897203</v>
       </c>
       <c r="P8" t="n">
-        <v>0.211907162308597</v>
+        <v>0.1782310042905945</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3035040996376315</v>
+        <v>0.1173398649672394</v>
       </c>
       <c r="R8" t="n">
-        <v>0.333591969529531</v>
+        <v>0.1547539437588091</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3551000523025653</v>
+        <v>0.2269336993773023</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3127920514968887</v>
+        <v>0.2728929472795886</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3264758709271113</v>
+        <v>0.2436264974027543</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2856061571264326</v>
+        <v>0.2632139012162418</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3086976931369135</v>
+        <v>0.2780734274961333</v>
       </c>
       <c r="X8" t="n">
-        <v>0.254251547364582</v>
+        <v>0.2863252939354237</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.246471263344047</v>
+        <v>0.2874821406551478</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2575137691286757</v>
+        <v>0.2806406268413991</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2177656873329326</v>
+        <v>0.2675300899696136</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2405354057269808</v>
+        <v>0.259204537960698</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1740535292610661</v>
+        <v>0.2551366660454628</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1453163347879265</v>
+        <v>0.1419039973687994</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436355215859741</v>
+        <v>0.1408999806320444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1440021724924303</v>
+        <v>0.142553306768918</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1703562236727303</v>
+        <v>0.1399059996512339</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1769956627377994</v>
+        <v>0.1440880893997455</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1783132361229835</v>
+        <v>0.1260310263295806</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1846896692186127</v>
+        <v>0.154344551431046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1010785903495905</v>
+        <v>0.1730265028663565</v>
       </c>
       <c r="J2" t="n">
-        <v>0.103283981055822</v>
+        <v>0.1603613384390222</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1099382287101648</v>
+        <v>0.1412217521688242</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1216014780961863</v>
+        <v>0.1592069583228903</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0960773925694814</v>
+        <v>0.1559920963900713</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1050558569260161</v>
+        <v>0.1505515996884278</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07326232899426892</v>
+        <v>0.154622926410328</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03413212144160137</v>
+        <v>0.1835944220126294</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07088383250786699</v>
+        <v>0.1770367632005009</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05068053290169842</v>
+        <v>0.1703175233437273</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01774606301817937</v>
+        <v>0.1516830692334295</v>
       </c>
       <c r="T2" t="n">
-        <v>0.009912642523699266</v>
+        <v>0.109785127998066</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004795178298736513</v>
+        <v>0.05449431347991631</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002822757211477434</v>
+        <v>0.02514557515143932</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001518295098477755</v>
+        <v>0.00911619162352691</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0006107626025148984</v>
+        <v>0.004492372161345289</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001049161501139084</v>
+        <v>0.001839880325852188</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.379907747437649e-05</v>
+        <v>0.004934243909579614</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.068235235620327e-05</v>
+        <v>0.01773086890416213</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.910922792786091e-06</v>
+        <v>0.006439632305893734</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.406676630978081e-10</v>
+        <v>0.003069506907265005</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1345467591613349</v>
+        <v>0.1459849115474744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422972460538015</v>
+        <v>0.1494548917503368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1430529658477564</v>
+        <v>0.1440982859022275</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09593307885694254</v>
+        <v>0.1537549303801845</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09449239811627519</v>
+        <v>0.1405085478845493</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09965852856613346</v>
+        <v>0.1694448253252106</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019427193777727</v>
+        <v>0.1269155239021459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2287266815921412</v>
+        <v>0.08936958902069302</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2978256631192785</v>
+        <v>0.1138598002412889</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116744315536386</v>
+        <v>0.1472708655879748</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2913635885447444</v>
+        <v>0.09284631293642487</v>
       </c>
       <c r="M3" t="n">
-        <v>0.393880720764879</v>
+        <v>0.1443106083278198</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3669751216800443</v>
+        <v>0.0635136039032633</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4654243309964532</v>
+        <v>0.1002642544402546</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5984757564863062</v>
+        <v>0.09490479780984207</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4794235133657553</v>
+        <v>0.1409514297231803</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5173420848013983</v>
+        <v>0.07066459369832401</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5935458943817895</v>
+        <v>0.2267014297560304</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6352295489021765</v>
+        <v>0.3364427028426361</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6422482143577254</v>
+        <v>0.4577182839676122</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6333923797068266</v>
+        <v>0.5354458124828378</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6078912277123072</v>
+        <v>0.6036434186088037</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6163876056681127</v>
+        <v>0.6195626373543799</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6431039408525696</v>
+        <v>0.660372836951836</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6673995244446314</v>
+        <v>0.6335058230274334</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6424770656670717</v>
+        <v>0.5976197298529988</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.665099107586409</v>
+        <v>0.646884485143181</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6872366561633114</v>
+        <v>0.6687290163221511</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1345467469622835</v>
+        <v>0.1459849162695729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1422972434449971</v>
+        <v>0.1494549015054456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1430529626007215</v>
+        <v>0.1440982875257621</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09593358243998371</v>
+        <v>0.1537549455097616</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09449317403347687</v>
+        <v>0.1405085429358582</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09965959527519215</v>
+        <v>0.169444291045504</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1019442356777742</v>
+        <v>0.1269158053799391</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2287286702715271</v>
+        <v>0.08937012700258536</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1568296729166617</v>
+        <v>0.1138601251838479</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1205014555127748</v>
+        <v>0.1472707762120917</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1001074236268098</v>
+        <v>0.1652231495238329</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04836828165123197</v>
+        <v>0.1364072481695914</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03505434904446762</v>
+        <v>0.1902443762271337</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01954396775127851</v>
+        <v>0.1652704172149778</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006409876545352095</v>
+        <v>0.1489568424768659</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01536150365390557</v>
+        <v>0.1250607791908673</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00523593355563327</v>
+        <v>0.1713803557342558</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002156780331946488</v>
+        <v>0.07972489197724766</v>
       </c>
       <c r="T4" t="n">
-        <v>8.680301439093021e-05</v>
+        <v>0.04416432492558252</v>
       </c>
       <c r="U4" t="n">
-        <v>1.706441586060852e-05</v>
+        <v>0.01373228216998855</v>
       </c>
       <c r="V4" t="n">
-        <v>4.098073221989604e-06</v>
+        <v>0.003902887691192484</v>
       </c>
       <c r="W4" t="n">
-        <v>5.433527415873603e-07</v>
+        <v>0.0008935768262247112</v>
       </c>
       <c r="X4" t="n">
-        <v>7.252658159824389e-08</v>
+        <v>0.0002230789774490754</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.369204924990472e-09</v>
+        <v>5.724917989295288e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.119492542667502e-10</v>
+        <v>4.207502493739174e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.792554256457619e-11</v>
+        <v>0.0001201063979088671</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.559369507362304e-12</v>
+        <v>2.040815961867983e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.030861241760236e-14</v>
+        <v>3.747545326818035e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1345421547332676</v>
+        <v>0.1459866938831764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1422962612086789</v>
+        <v>0.1494585737470596</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1430517399362406</v>
+        <v>0.144098898669995</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09592391983330432</v>
+        <v>0.1537606408145143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09447876267439705</v>
+        <v>0.1405066799050352</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09964005299537207</v>
+        <v>0.1694512819503095</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1019168125771165</v>
+        <v>0.1269091229173915</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2286918464436752</v>
+        <v>0.08935948111498117</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2357677184544109</v>
+        <v>0.11385286417146</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2524921484659687</v>
+        <v>0.147270295671051</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2807170557025131</v>
+        <v>0.1657104528218926</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2245800205838562</v>
+        <v>0.1631681855041567</v>
       </c>
       <c r="N5" t="n">
-        <v>0.24719105875822</v>
+        <v>0.1558398979401969</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1714941948523548</v>
+        <v>0.1608130060424983</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07923080364528681</v>
+        <v>0.1915330984135871</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.165712498783219</v>
+        <v>0.1840851748010343</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1167821982978438</v>
+        <v>0.1784337979627071</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0395542826739372</v>
+        <v>0.1563061814526018</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02082495547508863</v>
+        <v>0.1124344625547156</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008652902944526166</v>
+        <v>0.05519457748929774</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004421795299935923</v>
+        <v>0.02329475477630306</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001878366248975857</v>
+        <v>0.00772132420734849</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006350767693875618</v>
+        <v>0.00339422487695786</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.165033097460932e-05</v>
+        <v>0.00127847596072426</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.949709160877861e-05</v>
+        <v>0.003765818562880102</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.261021054901423e-06</v>
+        <v>0.01980390637416116</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.264657718956162e-06</v>
+        <v>0.006242536451488943</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.164628792572037e-12</v>
+        <v>0.002566703704416008</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1554993266598535</v>
+        <v>0.1381315080525086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1430574651343959</v>
+        <v>0.1328289539315946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1412784764861789</v>
+        <v>0.1409007893760296</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1849805711767571</v>
+        <v>0.1259835648728413</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1807097183373526</v>
+        <v>0.1458640432690058</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1719456369512211</v>
+        <v>0.1206664602891968</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1626257248597463</v>
+        <v>0.1559886953121375</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05764813738889484</v>
+        <v>0.1931773350156838</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03747691731998342</v>
+        <v>0.1693722074316231</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02741706746824175</v>
+        <v>0.1386713155240837</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02181849738286441</v>
+        <v>0.1542505665902771</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00994459580966269</v>
+        <v>0.1250032527678616</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006743491165620005</v>
+        <v>0.1811121595718087</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003549423568862898</v>
+        <v>0.1544362279424353</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001067952440119716</v>
+        <v>0.1320227559369586</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002438374216601028</v>
+        <v>0.1070846309497787</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000673862768654464</v>
+        <v>0.1614006895666224</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33379499351938e-05</v>
+        <v>0.06580289004367366</v>
       </c>
       <c r="T6" t="n">
-        <v>5.86216640547361e-06</v>
+        <v>0.03402590136811463</v>
       </c>
       <c r="U6" t="n">
-        <v>1.480257919999893e-06</v>
+        <v>0.00943916224371813</v>
       </c>
       <c r="V6" t="n">
-        <v>4.62443119214891e-07</v>
+        <v>0.003047603522523351</v>
       </c>
       <c r="W6" t="n">
-        <v>8.961446455320062e-08</v>
+        <v>0.000783308185430808</v>
       </c>
       <c r="X6" t="n">
-        <v>1.658859925613149e-08</v>
+        <v>0.0002369633035380897</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.882178794052137e-10</v>
+        <v>6.910983105624364e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.460108819861371e-10</v>
+        <v>0.0001104785773026895</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.418352707029553e-12</v>
+        <v>0.0003314944219419731</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.008723239342462e-13</v>
+        <v>5.729540693298874e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.508095448584284e-15</v>
+        <v>1.079535055346145e-05</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1405623195656747</v>
+        <v>0.1436865499129234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432841067988772</v>
+        <v>0.1446649849903756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440586587684976</v>
+        <v>0.143261924450473</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172133098966902</v>
+        <v>0.1461362620674545</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1779699320244967</v>
+        <v>0.1427072697432974</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1783848902220005</v>
+        <v>0.1241419885419348</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1833423187933108</v>
+        <v>0.1529450021699056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09638665862251948</v>
+        <v>0.1730949117037061</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1304821429543035</v>
+        <v>0.1595561705946666</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1498318939702135</v>
+        <v>0.1395227161718675</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1619240053969581</v>
+        <v>0.1082979324519786</v>
       </c>
       <c r="M7" t="n">
-        <v>0.216865488747147</v>
+        <v>0.1497758309528679</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2319727168276549</v>
+        <v>0.07762144149195417</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2630070139840798</v>
+        <v>0.1099472856924196</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2795508658560669</v>
+        <v>0.116265446611412</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2635687716459298</v>
+        <v>0.1576004067025511</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3085417500806155</v>
+        <v>0.08692837133114162</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3489083854488687</v>
+        <v>0.2530171453181581</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3339334125609262</v>
+        <v>0.3282832924903774</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3442837145014906</v>
+        <v>0.3995927837809041</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3593581286864895</v>
+        <v>0.4062521582079383</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3887114212640339</v>
+        <v>0.3771503827132935</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3823664574062382</v>
+        <v>0.3719067623589454</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3567094881014971</v>
+        <v>0.3363332076513842</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3325271785518067</v>
+        <v>0.3575951931115354</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3575079909348038</v>
+        <v>0.3642497826039724</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3348957168308976</v>
+        <v>0.3403304351337095</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3127633434888423</v>
+        <v>0.3256153949272461</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1549863581296593</v>
+        <v>0.1383214229655447</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143132155773275</v>
+        <v>0.1332377134431433</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1415030238681746</v>
+        <v>0.1409885073065949</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18473952505338</v>
+        <v>0.1267036567040101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1808603520762022</v>
+        <v>0.1458168268625086</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1723980598670971</v>
+        <v>0.1208201265182637</v>
       </c>
       <c r="H8" t="n">
-        <v>0.163538519495667</v>
+        <v>0.1559812988874344</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05873941533165191</v>
+        <v>0.1926020532759942</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03833390417953999</v>
+        <v>0.1691374939380914</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02814477431899802</v>
+        <v>0.1387722786641071</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02246795124992394</v>
+        <v>0.1544646273527036</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01028349987374171</v>
+        <v>0.1253427778876314</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007007405597976943</v>
+        <v>0.1811169211772154</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003718739852701922</v>
+        <v>0.1546458822570864</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001132623585266932</v>
+        <v>0.1327226367387048</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002611505826722573</v>
+        <v>0.1081808154320872</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0007436375941562068</v>
+        <v>0.1608746683632218</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6358494095254e-05</v>
+        <v>0.06676439221885885</v>
       </c>
       <c r="T8" t="n">
-        <v>6.775357312916064e-06</v>
+        <v>0.03486418782050772</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44522374084686e-06</v>
+        <v>0.009828596868562932</v>
       </c>
       <c r="V8" t="n">
-        <v>3.785789293147333e-07</v>
+        <v>0.002911208167765774</v>
       </c>
       <c r="W8" t="n">
-        <v>5.670899893622415e-08</v>
+        <v>0.0006917978353718755</v>
       </c>
       <c r="X8" t="n">
-        <v>8.438565764649574e-09</v>
+        <v>0.000183960967384431</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.074219443378168e-10</v>
+        <v>4.924009925422058e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.651860974902604e-11</v>
+        <v>4.636778633141608e-05</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.369258968706046e-12</v>
+        <v>0.000144111444854735</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.21309562748832e-13</v>
+        <v>2.520739917509086e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.325671255870402e-15</v>
+        <v>4.83524304153123e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.140353510858965</v>
+        <v>0.1413870473124548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1390059209646838</v>
+        <v>0.1387285274829921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1413891883887258</v>
+        <v>0.1405447525891547</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1620187628074012</v>
+        <v>0.1391530805114532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1729902033194942</v>
+        <v>0.1359193149414865</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1928933996552582</v>
+        <v>0.1054176062175087</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928746271919498</v>
+        <v>0.1128435743960578</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1734542578643313</v>
+        <v>0.1322244017488661</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1977302869509892</v>
+        <v>0.1683972610440278</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2347342420686287</v>
+        <v>0.1847974393683403</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2030290387646706</v>
+        <v>0.1938863246121261</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2199077672534399</v>
+        <v>0.1641344554048496</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2035549329085111</v>
+        <v>0.1425178675168081</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2303048700560718</v>
+        <v>0.170408760060746</v>
       </c>
       <c r="P2" t="n">
-        <v>0.183246496295408</v>
+        <v>0.200862381077016</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07535467380002003</v>
+        <v>0.180410578313588</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06340926484505489</v>
+        <v>0.1503044092770305</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0938796137105794</v>
+        <v>0.1464550840838225</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08254375429265896</v>
+        <v>0.1551899898237606</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008606333749163137</v>
+        <v>0.08096749067852739</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005229295506538592</v>
+        <v>0.005167972541480968</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02216943270060909</v>
+        <v>0.002092020098435031</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005873177769163682</v>
+        <v>0.001179398862224019</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002079333333419902</v>
+        <v>0.0003894409018022905</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.649293205750947e-08</v>
+        <v>0.0001486246629729877</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.177264092324175e-09</v>
+        <v>2.771646838322964e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.39265022657928e-10</v>
+        <v>1.504437763579804e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.799896972530679e-11</v>
+        <v>9.365262115287753e-07</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1506859722665359</v>
+        <v>0.1476311315310389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1555132384914087</v>
+        <v>0.1552781270885215</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1483341163793432</v>
+        <v>0.1520317607013795</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1136884191236345</v>
+        <v>0.156101963277752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1078014941597259</v>
+        <v>0.1644851911569929</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06568582903381109</v>
+        <v>0.2116736114782704</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05328611966508125</v>
+        <v>0.2062602935373759</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09813070554693686</v>
+        <v>0.1806182148483526</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01723671033978917</v>
+        <v>0.1290128913060268</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01335426425855269</v>
+        <v>0.1055588322579886</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007257394443567206</v>
+        <v>0.05425619306660313</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01338222916260464</v>
+        <v>0.01377680645593632</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006241391791747245</v>
+        <v>0.007855208808108268</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002014362153023824</v>
+        <v>0.02234350748488453</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006098284865647942</v>
+        <v>0.03226120739304601</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.149300954028382e-07</v>
+        <v>0.01517390910050476</v>
       </c>
       <c r="R3" t="n">
-        <v>1.217676023561364e-07</v>
+        <v>0.007224130296915748</v>
       </c>
       <c r="S3" t="n">
-        <v>4.980099060497496e-07</v>
+        <v>0.002637785432604594</v>
       </c>
       <c r="T3" t="n">
-        <v>9.197840344051481e-08</v>
+        <v>0.0006957962573242327</v>
       </c>
       <c r="U3" t="n">
-        <v>2.437287374125793e-09</v>
+        <v>0.0001723713808820532</v>
       </c>
       <c r="V3" t="n">
-        <v>4.477740807237107e-10</v>
+        <v>4.465239712843919e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>6.846399257065682e-10</v>
+        <v>4.677478107535949e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>7.899917103870527e-11</v>
+        <v>1.618220198064239e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.905963021439301e-11</v>
+        <v>2.871383244743143e-08</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.18829679528784e-14</v>
+        <v>6.402016966824891e-09</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.677880641008791e-15</v>
+        <v>1.398384427393825e-10</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.50116769833587e-17</v>
+        <v>5.979309556680189e-11</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.229255299172317e-18</v>
+        <v>3.157964316777315e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1506859844279431</v>
+        <v>0.1476311387795245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1555132573446338</v>
+        <v>0.1552781468823556</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1483341238674208</v>
+        <v>0.1520317728968945</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1136888558118363</v>
+        <v>0.1561019819428484</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078023596398655</v>
+        <v>0.1644852242592603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06568668095067201</v>
+        <v>0.2116734382942065</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05328686607037843</v>
+        <v>0.2062607517826417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09813149870175079</v>
+        <v>0.1806190677086106</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1307166747231404</v>
+        <v>0.1290141290392458</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1235612202326919</v>
+        <v>0.1055601613838797</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1383764807225711</v>
+        <v>0.1343649768434624</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1280133342875263</v>
+        <v>0.1745119857770725</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1414361360345328</v>
+        <v>0.1853061620153703</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1448726046710633</v>
+        <v>0.1661638101026865</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1623054815566942</v>
+        <v>0.1469180206631405</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1838196380183069</v>
+        <v>0.1661357118935087</v>
       </c>
       <c r="R4" t="n">
-        <v>0.183420680775312</v>
+        <v>0.1780819184091649</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1861903876846235</v>
+        <v>0.1947258684426111</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1678902205201773</v>
+        <v>0.2099867785881784</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2147248105522515</v>
+        <v>0.208622083296719</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1782386708641167</v>
+        <v>0.3367478057647562</v>
       </c>
       <c r="W4" t="n">
-        <v>0.115182444170273</v>
+        <v>0.3318766101171219</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1006639413307973</v>
+        <v>0.3634936493192015</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1081261334094381</v>
+        <v>0.4332144100596865</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1060538937858845</v>
+        <v>0.4910188504755593</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09503921655730753</v>
+        <v>0.5082168196459348</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1143062136346011</v>
+        <v>0.5190363553420814</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05335426686928122</v>
+        <v>0.527979629248393</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1506905625682889</v>
+        <v>0.1476338674439043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555203544982925</v>
+        <v>0.1552855982888195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1483369426188968</v>
+        <v>0.1520363636556195</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1136834812238483</v>
+        <v>0.1561090081596771</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1077893707018454</v>
+        <v>0.1644976854182062</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06567309260461285</v>
+        <v>0.2116932455043169</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0532748760525947</v>
+        <v>0.2062690879609637</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09811958178574133</v>
+        <v>0.1806184716033934</v>
       </c>
       <c r="J5" t="n">
-        <v>0.111054246130761</v>
+        <v>0.1290027138453527</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1321781277427459</v>
+        <v>0.1055452896719594</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1135882812462532</v>
+        <v>0.1099825729581038</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1236136002115505</v>
+        <v>0.09181307221248389</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1135617347097721</v>
+        <v>0.0792981323636444</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1287620076506658</v>
+        <v>0.09563338936380099</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1035074375217014</v>
+        <v>0.1135387742014628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04405865757599076</v>
+        <v>0.1025869518644443</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0372268371265528</v>
+        <v>0.08595970308458813</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05462904375150478</v>
+        <v>0.08440029799448479</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05687308886423917</v>
+        <v>0.09020830767991755</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01141623572934534</v>
+        <v>0.04759478134507177</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008813688241631482</v>
+        <v>0.004900724430422586</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03636101140736125</v>
+        <v>0.002553334861339332</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01218721211929602</v>
+        <v>0.001563172748033517</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004776292709696404</v>
+        <v>0.0005863930451303337</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.291754256829778e-06</v>
+        <v>0.0002495165156199452</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.156440340909376e-06</v>
+        <v>5.006839313162811e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.765486481669744e-08</v>
+        <v>2.893080103500869e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.872676151541911e-09</v>
+        <v>1.884171246941697e-06</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1311540983208403</v>
+        <v>0.1356603273151212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1237148686033728</v>
+        <v>0.124458416099372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1343562990392054</v>
+        <v>0.1284661297458083</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1650171413962835</v>
+        <v>0.1224702634784882</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1630342256943325</v>
+        <v>0.1105142099094257</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2051828505941586</v>
+        <v>0.07253785954587658</v>
       </c>
       <c r="H6" t="n">
-        <v>0.223398188426367</v>
+        <v>0.07314032943512749</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1767165430831784</v>
+        <v>0.09105634461685719</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2372477594670976</v>
+        <v>0.1298020270553481</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2156070911387666</v>
+        <v>0.1474118225942199</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2494896624358235</v>
+        <v>0.1902275656127516</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2270129139935917</v>
+        <v>0.2560909224955012</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2508068026518839</v>
+        <v>0.2785305597549811</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2383997024807699</v>
+        <v>0.2423384597537102</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2707457546597122</v>
+        <v>0.2069309304237027</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3485524331615413</v>
+        <v>0.2433194216069634</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3588051345323462</v>
+        <v>0.2770310100007063</v>
       </c>
       <c r="S6" t="n">
-        <v>0.331168537041445</v>
+        <v>0.2785546938672225</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3668621506316134</v>
+        <v>0.2654832643780616</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3662704956349934</v>
+        <v>0.3305749135338018</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4248976970727551</v>
+        <v>0.2330836030015819</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5301233156936636</v>
+        <v>0.2328959838290813</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5673524287878502</v>
+        <v>0.2006570616503733</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5771206221423115</v>
+        <v>0.1406825439193122</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5798435147179603</v>
+        <v>0.1013677183092076</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5725707475371385</v>
+        <v>0.1008607306676354</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6120746197208281</v>
+        <v>0.1001421323929578</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5520134839751725</v>
+        <v>0.09950907869429673</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1448214369221073</v>
+        <v>0.1441091120639422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1462543466256413</v>
+        <v>0.1458186447140384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1445300984624733</v>
+        <v>0.1457874020521798</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1667632896934591</v>
+        <v>0.1467406797597043</v>
       </c>
       <c r="F7" t="n">
-        <v>0.176983031374768</v>
+        <v>0.1483472301845916</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1996953491549169</v>
+        <v>0.1132843518059776</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2011166173691711</v>
+        <v>0.1207304103544836</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1785896400286267</v>
+        <v>0.1422858627551189</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06869790407053419</v>
+        <v>0.1832240673858464</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06427271277120111</v>
+        <v>0.2018510431699405</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03856863031724144</v>
+        <v>0.1248262115466608</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06060648335572123</v>
+        <v>0.04121985109032024</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03304272278690651</v>
+        <v>0.02587708795175544</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01396275672851669</v>
+        <v>0.05843594906759843</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004847153193145761</v>
+        <v>0.0900376287343702</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.145622640316497e-06</v>
+        <v>0.04724029799922666</v>
       </c>
       <c r="R7" t="n">
-        <v>4.306554076274866e-06</v>
+        <v>0.02460052374702727</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47829990075449e-05</v>
+        <v>0.01051786498205318</v>
       </c>
       <c r="T7" t="n">
-        <v>3.110214245252411e-06</v>
+        <v>0.003436784047155308</v>
       </c>
       <c r="U7" t="n">
-        <v>7.538319258112102e-08</v>
+        <v>0.000930302189797587</v>
       </c>
       <c r="V7" t="n">
-        <v>1.526295149222204e-08</v>
+        <v>2.279965666714492e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.631144733928565e-08</v>
+        <v>2.675115873950929e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>3.230160965403908e-09</v>
+        <v>9.751244015829237e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.041651022949877e-10</v>
+        <v>1.83297169010197e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.86132579744598e-13</v>
+        <v>4.297156449778288e-08</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.106159150765352e-14</v>
+        <v>9.254859871167772e-10</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.863238760532135e-15</v>
+        <v>4.035199604465914e-10</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.13063060173565e-17</v>
+        <v>2.158963138807104e-10</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1316084346353195</v>
+        <v>0.1359473755540142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1244780134719671</v>
+        <v>0.1251525394439009</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1347192312439349</v>
+        <v>0.129101818358964</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1651400499435369</v>
+        <v>0.123323022870077</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635993151099685</v>
+        <v>0.1117511441300367</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2051827980065705</v>
+        <v>0.0737198871538432</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2227627052244578</v>
+        <v>0.07449555253334972</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1768577729894346</v>
+        <v>0.09257763671880107</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2373164183176885</v>
+        <v>0.1315469103241525</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2162923417874132</v>
+        <v>0.1492754115536715</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2496905120698729</v>
+        <v>0.192456155360292</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2274636717355656</v>
+        <v>0.258452906563836</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2513562791166463</v>
+        <v>0.2806149815893325</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2416836962598887</v>
+        <v>0.2446761241665732</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2747378482867736</v>
+        <v>0.2094510575072618</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3482072368914053</v>
+        <v>0.2451331292217641</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3571336543990555</v>
+        <v>0.2767983051845672</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3341171368029337</v>
+        <v>0.2827084051972013</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3258275834986625</v>
+        <v>0.2749990792256022</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3989820465137667</v>
+        <v>0.3311380575752004</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3828206326042325</v>
+        <v>0.4200726293653784</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2961637690320058</v>
+        <v>0.4305789082303377</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3139232366837328</v>
+        <v>0.4331055804737463</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3078976175819092</v>
+        <v>0.4251270000630671</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3140962632486685</v>
+        <v>0.4072152406630587</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3323888732879062</v>
+        <v>0.3909146701349537</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2736190986504389</v>
+        <v>0.3808171142837808</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3946322452648711</v>
+        <v>0.3725084711123757</v>
       </c>
     </row>
   </sheetData>
